--- a/_ElectricalMount/BoM.xlsx
+++ b/_ElectricalMount/BoM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3cda156fc0c4dd1d/OneDrive - Documents/1. School/2. University/4. Year 4/FYDP-Local/thermo-force/_ElectricalMount/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="191" documentId="11_F25DC773A252ABDACC10484EC91E4A725BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3950C0FB-E6CC-4E52-B528-B004691423DF}"/>
+  <xr:revisionPtr revIDLastSave="342" documentId="11_F25DC773A252ABDACC10484EC91E4A725BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2E170B73-3567-413D-9C0E-5C9FA4F85204}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="75">
   <si>
     <t>Item</t>
   </si>
@@ -153,12 +153,6 @@
     <t>M3x6, 0.5mm Pitch</t>
   </si>
   <si>
-    <t>M4x16, 0.7mm Pitch</t>
-  </si>
-  <si>
-    <t>EMS Stock Number: 8373</t>
-  </si>
-  <si>
     <t>Thigh Mounting Strap</t>
   </si>
   <si>
@@ -168,15 +162,9 @@
     <t>Thigh Bar</t>
   </si>
   <si>
-    <t>EMS Stock Number: 1514, Comes by the foot, need 6", Needs custom machining after for holes &amp; threading</t>
-  </si>
-  <si>
     <t>Cable Guide</t>
   </si>
   <si>
-    <t>Part of https://github.com/uwtron2022/thermo-force/blob/weight-feedback/_ElectricalMount/MotorMount.SLDASM, named "CableGuide", 2 parts to 3D print</t>
-  </si>
-  <si>
     <t>M3x12, 0.5mm Pitch</t>
   </si>
   <si>
@@ -186,18 +174,6 @@
     <t>20Kg Loadcell</t>
   </si>
   <si>
-    <t>M4x25, 0.7mm Pitch</t>
-  </si>
-  <si>
-    <t>M4x10, 0.7mm Pitch</t>
-  </si>
-  <si>
-    <t>EMS Stock Number: 8375</t>
-  </si>
-  <si>
-    <t>1mm Galvinized Steel Wire</t>
-  </si>
-  <si>
     <t>2M</t>
   </si>
   <si>
@@ -225,10 +201,55 @@
     <t>Ethan G, Manufacture</t>
   </si>
   <si>
-    <t>Part of https://github.com/uwtron2022/thermo-force/blob/weight-feedback/_ElectricalMount/WristMount.SLDASM, named "Anchor1", Needs to be machined</t>
-  </si>
-  <si>
     <t>https://www.homehardware.ca/en/38-stainless-steel-swivel-eye-bolt-snap/p/5235030?page=search-results%20page</t>
+  </si>
+  <si>
+    <t>Aluminium Duplex Sleeve Canadian Tire</t>
+  </si>
+  <si>
+    <t>1/16" Cable Crimps</t>
+  </si>
+  <si>
+    <t>1/16" Galvinized Steel Wire</t>
+  </si>
+  <si>
+    <t>Wrist Mount</t>
+  </si>
+  <si>
+    <t>EMS Parts</t>
+  </si>
+  <si>
+    <t>M4x20, 0.7mm Pitch</t>
+  </si>
+  <si>
+    <t>M4x0.7mm Pitch Nut</t>
+  </si>
+  <si>
+    <t>https://github.com/uwtron2022/thermo-force/blob/weight-feedback/_ElectricalMount/Parts-ThighMount/0.125in-1in-6in_SteelBar.SLDPRT, Needs to be machined</t>
+  </si>
+  <si>
+    <t>M4x35, 0.7mm Pitch</t>
+  </si>
+  <si>
+    <t>EMS Stock Number: 8374</t>
+  </si>
+  <si>
+    <t>EMS Stock Number: 9383</t>
+  </si>
+  <si>
+    <t>EMS Stock Number: 8377</t>
+  </si>
+  <si>
+    <t>Hardware Store Parts</t>
+  </si>
+  <si>
+    <t>https://github.com/uwtron2022/thermo-force/blob/weight-feedback/_ElectricalMount/Parts-ThighMount/CableGuide</t>
+  </si>
+  <si>
+    <t>https://github.com/uwtron2022/thermo-force/blob/weight-feedback/_ElectricalMount/Parts-ThighMount/Adafruit_20KgLoadcellArms.SLDPRT</t>
+  </si>
+  <si>
+    <t>3D Printing Canada</t>
   </si>
 </sst>
 </file>
@@ -252,12 +273,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -273,14 +300,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -563,17 +598,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.140625" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="151.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -595,7 +631,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="5" t="s">
         <v>33</v>
       </c>
       <c r="B2" t="s">
@@ -609,7 +645,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
+      <c r="A3" s="5"/>
       <c r="B3" t="s">
         <v>5</v>
       </c>
@@ -621,7 +657,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
+      <c r="A4" s="5"/>
       <c r="B4" t="s">
         <v>14</v>
       </c>
@@ -633,7 +669,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
+      <c r="A5" s="5"/>
       <c r="B5" t="s">
         <v>6</v>
       </c>
@@ -648,7 +684,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
+      <c r="A6" s="5"/>
       <c r="B6" t="s">
         <v>9</v>
       </c>
@@ -663,7 +699,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
+      <c r="A7" s="5"/>
       <c r="B7" t="s">
         <v>13</v>
       </c>
@@ -678,7 +714,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
+      <c r="A8" s="5"/>
       <c r="B8" t="s">
         <v>17</v>
       </c>
@@ -686,14 +722,14 @@
         <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
+      <c r="A9" s="5"/>
       <c r="B9" t="s">
         <v>18</v>
       </c>
@@ -701,14 +737,14 @@
         <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
+      <c r="A10" s="5"/>
       <c r="B10" t="s">
         <v>19</v>
       </c>
@@ -720,7 +756,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
+      <c r="A11" s="5"/>
       <c r="B11" t="s">
         <v>20</v>
       </c>
@@ -732,7 +768,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
+      <c r="A12" s="5"/>
       <c r="B12" t="s">
         <v>21</v>
       </c>
@@ -744,7 +780,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
+      <c r="A13" s="5"/>
       <c r="B13" t="s">
         <v>22</v>
       </c>
@@ -756,7 +792,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
+      <c r="A14" s="5"/>
       <c r="B14" t="s">
         <v>24</v>
       </c>
@@ -768,7 +804,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
+      <c r="A15" s="5"/>
       <c r="B15" t="s">
         <v>25</v>
       </c>
@@ -780,7 +816,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
+      <c r="A16" s="5"/>
       <c r="B16" t="s">
         <v>23</v>
       </c>
@@ -792,7 +828,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
+      <c r="A17" s="5"/>
       <c r="B17" t="s">
         <v>26</v>
       </c>
@@ -804,7 +840,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
+      <c r="A18" s="5"/>
       <c r="B18" t="s">
         <v>27</v>
       </c>
@@ -816,7 +852,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
+      <c r="A19" s="5"/>
       <c r="B19" t="s">
         <v>28</v>
       </c>
@@ -828,7 +864,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
+      <c r="A20" s="5"/>
       <c r="B20" t="s">
         <v>29</v>
       </c>
@@ -839,7 +875,10 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>35</v>
+      </c>
       <c r="B21" t="s">
         <v>34</v>
       </c>
@@ -854,6 +893,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="5"/>
       <c r="B22" t="s">
         <v>35</v>
       </c>
@@ -868,6 +908,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="5"/>
       <c r="B23" t="s">
         <v>36</v>
       </c>
@@ -882,14 +923,19 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="5"/>
       <c r="B24" t="s">
         <v>40</v>
       </c>
       <c r="C24">
         <v>3</v>
       </c>
+      <c r="D24" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="5"/>
       <c r="B25" t="s">
         <v>41</v>
       </c>
@@ -901,61 +947,66 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="5"/>
       <c r="B26" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="5"/>
+      <c r="B27" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="5"/>
+      <c r="B28" t="s">
         <v>42</v>
       </c>
-      <c r="C26">
-        <v>2</v>
-      </c>
-      <c r="D26" t="s">
-        <v>10</v>
-      </c>
-      <c r="E26" t="s">
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="5"/>
+      <c r="B29" t="s">
         <v>44</v>
       </c>
-      <c r="C27">
-        <v>2</v>
-      </c>
-      <c r="D27" t="s">
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="5"/>
+      <c r="B30" t="s">
         <v>45</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>46</v>
-      </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-      <c r="D28" t="s">
-        <v>10</v>
-      </c>
-      <c r="E28" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>54</v>
-      </c>
-      <c r="C29">
-        <v>4</v>
-      </c>
-      <c r="D29" t="s">
-        <v>10</v>
-      </c>
-      <c r="E29" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>48</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -963,25 +1014,29 @@
       <c r="D30" t="s">
         <v>16</v>
       </c>
-      <c r="E30" t="s">
-        <v>49</v>
+      <c r="E30" s="4" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>62</v>
+      </c>
       <c r="B31" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C31">
         <v>2</v>
       </c>
       <c r="D31" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="5"/>
       <c r="B32" t="s">
         <v>18</v>
       </c>
@@ -989,15 +1044,16 @@
         <v>2</v>
       </c>
       <c r="D32" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="5"/>
       <c r="B33" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -1006,37 +1062,40 @@
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="5"/>
       <c r="B34" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C34">
         <v>2</v>
       </c>
       <c r="D34" t="s">
-        <v>65</v>
-      </c>
-      <c r="E34" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="5"/>
       <c r="B35" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C35">
         <v>2</v>
       </c>
       <c r="D35" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="5"/>
       <c r="B36" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="C36">
         <v>4</v>
@@ -1045,39 +1104,254 @@
         <v>10</v>
       </c>
       <c r="E36" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="5"/>
+      <c r="B37" t="s">
+        <v>61</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D37" t="s">
+        <v>51</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="5"/>
+      <c r="B38" t="s">
+        <v>52</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38" t="s">
+        <v>54</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="5"/>
+      <c r="B39" t="s">
+        <v>60</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+      <c r="D39" t="s">
+        <v>51</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+    </row>
+    <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B41" t="s">
+        <v>18</v>
+      </c>
+      <c r="C41">
+        <v>24</v>
+      </c>
+      <c r="D41" t="s">
+        <v>10</v>
+      </c>
+      <c r="E41" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="5"/>
+      <c r="B42" t="s">
+        <v>17</v>
+      </c>
+      <c r="C42">
+        <v>22</v>
+      </c>
+      <c r="D42" t="s">
+        <v>10</v>
+      </c>
+      <c r="E42" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="5"/>
+      <c r="B43" t="s">
+        <v>46</v>
+      </c>
+      <c r="C43">
+        <v>2</v>
+      </c>
+      <c r="D43" t="s">
+        <v>10</v>
+      </c>
+      <c r="E43" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="5"/>
+      <c r="B44" t="s">
+        <v>65</v>
+      </c>
+      <c r="C44">
+        <v>2</v>
+      </c>
+      <c r="D44" t="s">
+        <v>10</v>
+      </c>
+      <c r="E44" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="5"/>
+      <c r="B45" t="s">
+        <v>64</v>
+      </c>
+      <c r="C45">
+        <v>2</v>
+      </c>
+      <c r="D45" t="s">
+        <v>10</v>
+      </c>
+      <c r="E45" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="5"/>
+      <c r="B46" t="s">
+        <v>67</v>
+      </c>
+      <c r="C46">
+        <v>4</v>
+      </c>
+      <c r="D46" t="s">
+        <v>10</v>
+      </c>
+      <c r="E46" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="5"/>
+      <c r="B47" t="s">
+        <v>13</v>
+      </c>
+      <c r="C47">
+        <v>6</v>
+      </c>
+      <c r="D47" t="s">
+        <v>10</v>
+      </c>
+      <c r="E47" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="5"/>
+      <c r="B48" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48">
+        <v>6</v>
+      </c>
+      <c r="D48" t="s">
+        <v>10</v>
+      </c>
+      <c r="E48" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="7"/>
+    </row>
+    <row r="50" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B50" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
-        <v>56</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D37" t="s">
+      <c r="C50">
+        <v>2</v>
+      </c>
+      <c r="D50" t="s">
+        <v>54</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="6"/>
+      <c r="B51" t="s">
+        <v>52</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51" t="s">
+        <v>54</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="6"/>
+      <c r="B52" t="s">
+        <v>61</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D52" t="s">
+        <v>51</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="6"/>
+      <c r="B53" t="s">
+        <v>60</v>
+      </c>
+      <c r="C53">
+        <v>2</v>
+      </c>
+      <c r="D53" t="s">
+        <v>51</v>
+      </c>
+      <c r="E53" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E37" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
-        <v>60</v>
-      </c>
-      <c r="C38">
-        <v>1</v>
-      </c>
-      <c r="D38" t="s">
-        <v>62</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>67</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="5">
+    <mergeCell ref="A21:A30"/>
+    <mergeCell ref="A31:A39"/>
+    <mergeCell ref="A41:A48"/>
+    <mergeCell ref="A50:A53"/>
     <mergeCell ref="A2:A20"/>
   </mergeCells>
   <hyperlinks>
@@ -1088,6 +1362,14 @@
     <hyperlink ref="E37" r:id="rId5" location="srp" xr:uid="{3D004D2E-D4B6-4462-A5E2-B6DD3B16CBD6}"/>
     <hyperlink ref="E35" r:id="rId6" xr:uid="{5217ADD4-62C8-4CEA-9F85-E965E145EEE7}"/>
     <hyperlink ref="E38" r:id="rId7" xr:uid="{35A71821-1817-49F3-9FBF-9BE7DEA7C4D6}"/>
+    <hyperlink ref="E39" r:id="rId8" location="srp" display="https://www.canadiantire.ca/en/pdp/aluminium-duplex-sleeve-0618110p.html - srp" xr:uid="{5610A451-0A1E-42F0-BBEC-A1809E29B242}"/>
+    <hyperlink ref="E29" r:id="rId9" display="https://github.com/uwtron2022/thermo-force/blob/weight-feedback/_ElectricalMount/Parts-ThighMount/0.125in-1in-6in_SteelBar.SLDPRT" xr:uid="{AE00F441-8C86-4CEA-AC2B-2BD586B5FED6}"/>
+    <hyperlink ref="E50" r:id="rId10" xr:uid="{4A697795-C7BD-4DD1-B20A-7875532F03AA}"/>
+    <hyperlink ref="E51" r:id="rId11" xr:uid="{E27E08BD-BCF3-4A67-944D-1C1AE3DD247E}"/>
+    <hyperlink ref="E52" r:id="rId12" location="srp" xr:uid="{B047D51A-07C1-4154-90DB-811A52AB7D31}"/>
+    <hyperlink ref="E53" r:id="rId13" location="srp" display="https://www.canadiantire.ca/en/pdp/aluminium-duplex-sleeve-0618110p.html - srp" xr:uid="{72E3CAEB-E587-4A40-B4D2-C8B7E2591244}"/>
+    <hyperlink ref="E30" r:id="rId14" display="https://github.com/uwtron2022/thermo-force/blob/weight-feedback/_ElectricalMount/Parts-ThighMount/0.125in-1in-6in_SteelBar.SLDPRT" xr:uid="{011057DC-08AA-49D7-9071-5171177B9591}"/>
+    <hyperlink ref="E34" r:id="rId15" display="https://github.com/uwtron2022/thermo-force/blob/weight-feedback/_ElectricalMount/Parts-ThighMount/0.125in-1in-6in_SteelBar.SLDPRT" xr:uid="{9F8A11EE-F9D4-4D08-969F-BE8F04D8B8D8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
